--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>net_idx</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
   </si>
   <si>
     <t>x_0</t>
@@ -588,13 +591,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,8 +649,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -664,46 +670,49 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -720,46 +729,49 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -776,46 +788,49 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -832,46 +847,49 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -888,43 +906,46 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R6">
         <v>1</v>
+      </c>
+      <c r="S6">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -951,34 +972,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>net_idx</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
   </si>
 </sst>
 </file>
@@ -955,13 +958,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,6 +1003,9 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>net_idx</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
   </si>
 </sst>
 </file>
@@ -958,13 +961,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O1"/>
+  <dimension ref="B1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,6 +1009,9 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>net_idx</t>
   </si>
@@ -84,6 +84,15 @@
     <t>txt_font_size</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -139,6 +148,42 @@
   </si>
   <si>
     <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>hexagon</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>ellipse</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[[[50.0, 50.0], [100.0, 100.0]]]</t>
+  </si>
+  <si>
+    <t>[[100.0, 50.0], [75.0, 7.0], [25.0, 7.0], [0.0, 50.0], [25.0, 86.0], [75.0, 86.0]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 50.0], [100.0, 50.0]]</t>
+  </si>
+  <si>
+    <t>[[100.0, 50.0], [25.0, 7.0], [25.0, 86.0]]</t>
   </si>
   <si>
     <t>sources</t>
@@ -597,13 +642,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,8 +703,17 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -676,40 +730,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -717,8 +771,17 @@
       <c r="S2">
         <v>11</v>
       </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -735,40 +798,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -776,8 +839,17 @@
       <c r="S3">
         <v>11</v>
       </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -794,40 +866,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -835,8 +907,17 @@
       <c r="S4">
         <v>11</v>
       </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -853,40 +934,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -894,8 +975,17 @@
       <c r="S5">
         <v>11</v>
       </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -912,46 +1002,55 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
         <v>11</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -978,40 +1077,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6A7D3F-21DF-4318-9863-8AA32B0BBCEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>net_idx</t>
   </si>
@@ -153,9 +159,6 @@
     <t>rectangle</t>
   </si>
   <si>
-    <t>circle</t>
-  </si>
-  <si>
     <t>hexagon</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>[[[50.0, 50.0], [100.0, 100.0]]]</t>
   </si>
   <si>
     <t>[[100.0, 50.0], [75.0, 7.0], [25.0, 7.0], [0.0, 50.0], [25.0, 86.0], [75.0, 86.0]]</t>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -332,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,9 +372,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,6 +424,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -641,14 +685,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -778,10 +824,10 @@
         <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -840,16 +886,16 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -908,16 +954,16 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -976,16 +1022,16 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1044,13 +1090,13 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1059,14 +1105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,40 +1123,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6A7D3F-21DF-4318-9863-8AA32B0BBCEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>net_idx</t>
   </si>
@@ -159,6 +154,9 @@
     <t>rectangle</t>
   </si>
   <si>
+    <t>ellipse</t>
+  </si>
+  <si>
     <t>hexagon</t>
   </si>
   <si>
@@ -168,9 +166,6 @@
     <t>triangle</t>
   </si>
   <si>
-    <t>ellipse</t>
-  </si>
-  <si>
     <t>polygon</t>
   </si>
   <si>
@@ -217,13 +212,16 @@
   </si>
   <si>
     <t>rxn_reversible</t>
+  </si>
+  <si>
+    <t>txt_content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,14 +284,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -340,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,27 +362,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,24 +396,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,14 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -685,16 +639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -827,7 +779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -886,16 +838,16 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -954,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
         <v>49</v>
@@ -963,7 +915,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1022,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
         <v>49</v>
@@ -1031,7 +983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1090,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
         <v>49</v>
@@ -1105,14 +1057,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,6 +1109,39 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>net_idx</t>
   </si>
@@ -46,10 +47,10 @@
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[10.0, 10.0]</t>
-  </si>
-  <si>
-    <t>[3900.0, 2400.0]</t>
+    <t>[0, 0]</t>
+  </si>
+  <si>
+    <t>[1000, 1000]</t>
   </si>
   <si>
     <t>[255, 255, 255, 255]</t>
@@ -1039,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T6" t="s">
         <v>48</v>
@@ -1147,4 +1148,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE4703-1671-4C47-8F26-7F620A2CEF8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>net_idx</t>
   </si>
@@ -216,13 +222,16 @@
   </si>
   <si>
     <t>txt_content</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,13 +279,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -285,6 +308,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -331,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,9 +394,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +446,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,14 +639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -640,14 +707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -780,7 +847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -848,7 +915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -916,7 +983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -984,7 +1051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1058,14 +1125,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1157,7 @@
         <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>58</v>
@@ -1110,6 +1179,9 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1118,14 +1190,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1151,14 +1223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE4703-1671-4C47-8F26-7F620A2CEF8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,10 +44,31 @@
     <t>border_width</t>
   </si>
   <si>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[0, 0]</t>
+    <t>[0.0, 0.0]</t>
   </si>
   <si>
     <t>[1000, 1000]</t>
@@ -62,6 +77,12 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>['middle', 'middle']</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -77,21 +98,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -155,9 +161,6 @@
     <t>[21, 82, 242, 255]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 255]</t>
-  </si>
-  <si>
     <t>rectangle</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -219,19 +225,13 @@
   </si>
   <si>
     <t>rxn_reversible</t>
-  </si>
-  <si>
-    <t>txt_content</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -279,27 +279,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -308,14 +294,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -362,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,27 +372,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,24 +406,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,14 +581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +613,29 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -683,22 +646,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -707,34 +688,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -743,13 +724,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -761,25 +742,31 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -796,58 +783,61 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -864,58 +854,61 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -932,58 +925,61 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1000,58 +996,61 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="X5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1068,40 +1067,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1110,13 +1109,16 @@
         <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V6" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="X6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1125,16 +1127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,42 +1145,42 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1190,31 +1190,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1223,16 +1229,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1250,10 +1256,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>net_idx</t>
   </si>
@@ -833,6 +833,9 @@
       <c r="V2" t="s">
         <v>53</v>
       </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
       <c r="X2" t="s">
         <v>20</v>
       </c>
@@ -903,6 +906,9 @@
       </c>
       <c r="V3" t="s">
         <v>53</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
       </c>
       <c r="X3" t="s">
         <v>20</v>
@@ -975,6 +981,9 @@
       <c r="V4" t="s">
         <v>54</v>
       </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
       <c r="X4" t="s">
         <v>20</v>
       </c>
@@ -1046,6 +1055,9 @@
       <c r="V5" t="s">
         <v>55</v>
       </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
       <c r="X5" t="s">
         <v>20</v>
       </c>
@@ -1116,6 +1128,9 @@
       </c>
       <c r="V6" t="s">
         <v>56</v>
+      </c>
+      <c r="W6" t="s">
+        <v>33</v>
       </c>
       <c r="X6" t="s">
         <v>20</v>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>net_idx</t>
   </si>
@@ -77,6 +78,9 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0.0]</t>
+  </si>
+  <si>
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
@@ -225,6 +229,36 @@
   </si>
   <si>
     <t>rxn_reversible</t>
+  </si>
+  <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>[91, 176, 253, 255]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -667,10 +701,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -679,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -700,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -724,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -751,13 +785,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -783,40 +817,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -825,19 +859,19 @@
         <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -857,40 +891,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -899,19 +933,19 @@
         <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -931,40 +965,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -973,19 +1007,19 @@
         <v>10</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1005,40 +1039,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1047,19 +1081,19 @@
         <v>10</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1079,40 +1113,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1121,19 +1155,19 @@
         <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1143,13 +1177,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="B1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,43 +1194,52 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1271,10 +1314,89 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="76">
   <si>
     <t>net_idx</t>
   </si>
@@ -240,25 +240,13 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
-    <t>_line_ending_default_NONE_</t>
-  </si>
-  <si>
-    <t>_line_ending_default_</t>
-  </si>
-  <si>
-    <t>[-15.0, -6.0]</t>
-  </si>
-  <si>
-    <t>[15.0, 12.0]</t>
-  </si>
-  <si>
-    <t>[91, 176, 253, 255]</t>
-  </si>
-  <si>
-    <t>['polygon']</t>
-  </si>
-  <si>
-    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
   </si>
 </sst>
 </file>
@@ -1177,13 +1165,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T1"/>
+  <dimension ref="B1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,6 +1228,15 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1327,13 +1324,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1351,52 +1348,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t>net_idx</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>mod_lineend_position</t>
+  </si>
+  <si>
+    <t>center_size</t>
   </si>
 </sst>
 </file>
@@ -1165,13 +1168,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:W1"/>
+  <dimension ref="B1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:23">
+    <row r="1" spans="2:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,6 +1240,18 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>net_idx</t>
   </si>
@@ -183,6 +184,9 @@
     <t>polygon</t>
   </si>
   <si>
+    <t>[[0.0, 0.0]]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -250,6 +254,18 @@
   </si>
   <si>
     <t>center_size</t>
+  </si>
+  <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -930,7 +946,7 @@
         <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
         <v>31</v>
@@ -1004,7 +1020,7 @@
         <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
         <v>32</v>
@@ -1078,7 +1094,7 @@
         <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
         <v>33</v>
@@ -1152,7 +1168,7 @@
         <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
         <v>34</v>
@@ -1168,13 +1184,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AA1"/>
+  <dimension ref="B1:AC1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,64 +1201,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>27</v>
@@ -1252,6 +1268,12 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1339,13 +1361,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1363,6 +1385,51 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>['middle', 'middle']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -103,15 +115,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
-  </si>
-  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -185,9 +188,6 @@
   </si>
   <si>
     <t>[[0.0, 0.0]]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[[100.0, 50.0], [75.0, 7.0], [25.0, 7.0], [0.0, 50.0], [25.0, 86.0], [75.0, 86.0]]</t>
@@ -623,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,8 +675,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -687,31 +696,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -720,7 +729,10 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -741,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -765,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -792,13 +804,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -824,40 +836,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -866,19 +878,19 @@
         <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -898,40 +910,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -940,19 +952,19 @@
         <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -972,40 +984,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1014,19 +1026,19 @@
         <v>10</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
         <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1046,40 +1058,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1088,19 +1100,19 @@
         <v>10</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
         <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1120,40 +1132,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1162,19 +1174,19 @@
         <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
         <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1261,13 +1273,13 @@
         <v>77</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>78</v>
@@ -1330,7 +1342,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1348,10 +1360,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1381,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>

--- a/tests/initiate_excel_files/node_grid.xlsx
+++ b/tests/initiate_excel_files/node_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
   <si>
     <t>net_idx</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>shape_idx</t>
+  </si>
+  <si>
+    <t>spec_dash</t>
   </si>
   <si>
     <t>x_0</t>
@@ -742,13 +745,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,8 +821,11 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -836,34 +842,34 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -878,22 +884,25 @@
         <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -910,34 +919,34 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -952,22 +961,25 @@
         <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" t="s">
         <v>25</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
         <v>24</v>
       </c>
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -984,34 +996,34 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1026,22 +1038,25 @@
         <v>10</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
         <v>24</v>
       </c>
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1058,34 +1073,34 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1100,22 +1115,25 @@
         <v>10</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
         <v>24</v>
       </c>
+      <c r="Y5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1132,34 +1150,34 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1174,19 +1192,22 @@
         <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s">
         <v>24</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1213,64 +1234,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1282,10 +1303,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1417,10 +1438,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
